--- a/builtins/data/helpdoc/DND/21_印记城与外域.xlsx
+++ b/builtins/data/helpdoc/DND/21_印记城与外域.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SO背景" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Key</t>
   </si>
@@ -413,7 +413,7 @@
     <t>位面哲学家 Planar Philosopher
 先决条件：异度风景战役
 你研修着一门理解位面之自然或多元宇宙之秘实的哲学。你从你的信仰中获得力量，且，或许，有一群与你相似之人构建起了信仰网络，例如印记城的那些派系（稍后解释）就是这样的组织。在你的旅途中，你探索着你知识的渊底，将你的哲学传播到每个所及之处。
-技能：奥秘，与你的派系有关的一项技能（见下方印记城派系亲和力）或你自选的一项技能
+技能：奥秘，与你的派系有关的一项技能（另见印记城派系偏好表）或你自选的一项技能
 语言：自选两门语言
 装备：一把传送门的钥匙（例如一包黄金茶叶，或是位面野兽之牙），一份你向往哲学的宣言稿，一套你派系风格的普通服装，以及一个小包，内装有价值10gp的、不同世界与不同位面的硬币。
 特性：信念之力 Feature: Convistion
@@ -421,6 +421,40 @@
 创建一个位面哲学家角色。一些位面哲学家的团体也许只会接纳特定类型的角色，但是总体来说任何角色只要坚持并深修团体的信仰，那么任何团体都会欢迎他们。
 建议特征。那些派系会包容深信着同一多元宇宙哲学的冒险者。位面哲学家个性特点表向你建议了一些你也许可以为你的角色选用的的个性特点。（另见位面哲学家个性特点表）
 位面哲学家饰品Planar Philosopher Trinkets。当你制作你的角色时，你可以投掷一次位面哲学家饰品表，作为创建角色时投掷《玩家手册》中饰品表的代替。（另见位面哲学家饰品表）</t>
+  </si>
+  <si>
+    <t>印记城派系偏好表</t>
+  </si>
+  <si>
+    <t>印记城派系偏好
+派系  技能
+神明非神会Athar 宗教
+无望党Bleak Cabal 洞悉
+末日守卫Doomguard 自然
+定命盟Fated 威吓
+秩序厅Fraternity of Order 历史
+祸乱之手Hands of Havoc 隐匿
+和谐营Harmonium 察觉
+灰烬先驱Heralds of Dust 医药
+屠悯会Mercykillers 求生
+心灵之眼Mind's Eye 游说
+感觉团Society of Sensation 表演
+超然社Transcendent Order 运动
+印记城的派系 Factions of Sigil
+众门之城有着无数派系，但目前只有有12个派系比较出名。你的角色也许隶属于这些组织之一，或也许是别的类似派系——也许还是一个你自创的派系。
+这12个印记城的主要派系将在第二章详细描述，此处只介绍与他们相关的哲学：
+神明非神会Athar。诸神不过是群骗子罢了，他们窃奇迹之名而化神力.
+无望党Bleak Cabal。多元宇宙没有更伟大的真理可以遵循，个人应该从这个世界中创造自己存在的意义。
+末日守卫Doomguard。没有什么能够保持永恒，一切事物都将腐烂或破败。
+定命盟Fated。每个人都能决定他们自己的命运，但仅限那些有能力驾驭它的人。
+秩序厅Fraternity of Order。万事万物皆有规律可循。规则是力量的代表，知识就是力量。
+祸乱之手Hands of Havoc。那些妄图将多元宇宙统一家伙，它们绝对不可能成功。
+和谐营Harmonium。只有每个人都尽最大努力保持和谐，这个多元宇宙才有可能进入它最完美的状态。
+灰烬先驱Heralds of Dust。众生皆死；多元宇宙乃人之新生。而不死，乃飞升之钥。
+屠悯会Mercykillers。冷酷、无情的正义是绝对的真理，没有任何人可以凌驾其上。
+心灵之眼Mind's Eye。多元宇宙等待着探秘。它塑造我们，我们塑造回去。
+感觉团Society of Sensation。我感故我在。只要亲身体验一切，可以学习并理解这个多元宇宙的一切。
+超然社Transcendent Order。思想会束缚你的行动！只有本能是你在多元宇宙中摸索的唯一感官。</t>
   </si>
   <si>
     <t>位面哲学家个性特点表</t>
@@ -447,6 +481,17 @@
 4 扭曲的剃刀藤编制而成的手镯
 5 锈迹斑斑的青铜刀剑的一块碎片
 6 一枚被遗忘的神明的损坏圣徽</t>
+  </si>
+  <si>
+    <t>边栏:创建你自己的派系</t>
+  </si>
+  <si>
+    <t>创建你自己的派系 Creating Your Own Factions
+在印记城，相同的事不断的发生着，获取知名度，招纳意识形态类似的哲学家，从一个派系到另一个派系，这从来都不是罕见事——而在印记城里唯一不变的只有那名痛苦女士她本人。如果你想创建一个新派系，并成为那个新派系的一员的话，那么就询问你的DM吧。
+你的派系应该包含以下的细节：
+ · 一条核心的哲学，以多元宇宙或其运作方式的假说或根本为中心。
+ · 在众门之城中有一座用作你们派系基地的建筑物。
+ · 一名能够体现派系信仰程度的领导者（称之为 会长factol）。</t>
   </si>
   <si>
     <t>界门封锁</t>
@@ -1533,10 +1578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1626,15 +1671,23 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -1660,6 +1713,12 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1674,7 +1733,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1706,21 +1765,21 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1781,31 +1840,31 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1826,8 +1885,6 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="3"/>
     </row>
   </sheetData>
@@ -1875,71 +1932,71 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3"/>
     </row>
